--- a/test_excel/test.xlsx
+++ b/test_excel/test.xlsx
@@ -523,23 +523,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -556,8 +556,10 @@
           <t>step_server</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -613,7 +615,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -627,11 +629,13 @@
           <t>dut_server</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -667,16 +671,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -693,11 +697,13 @@
           <t>dut_server</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -733,16 +739,16 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -759,11 +765,13 @@
           <t>dut_server</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -799,16 +807,16 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>

--- a/test_excel/test.xlsx
+++ b/test_excel/test.xlsx
@@ -187,6 +187,8 @@
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -541,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -824,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -946,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1068,7 +1070,7 @@
         <v>90</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1204,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1326,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1448,7 +1450,7 @@
         <v>45</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1570,7 +1572,7 @@
         <v>135</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1706,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I45" t="s">
         <v>11</v>
@@ -1950,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I49" t="s">
         <v>11</v>
@@ -2072,7 +2074,7 @@
         <v>90</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I53" t="s">
         <v>11</v>

--- a/test_excel/test.xlsx
+++ b/test_excel/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
   <si>
     <t>server_name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>ON</t>
   </si>
   <si>
-    <t>yes,3</t>
-  </si>
-  <si>
     <t>1,0</t>
   </si>
   <si>
@@ -168,6 +165,13 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,7 +628,7 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -641,7 +645,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -669,7 +673,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -724,7 +728,7 @@
         <v>90</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F8">
         <v>90</v>
@@ -736,10 +740,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -768,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
         <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -788,7 +792,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -805,7 +809,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -846,7 +850,7 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F12">
         <v>90</v>
@@ -858,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -890,10 +894,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,7 +914,7 @@
         <v>90</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F14">
         <v>90</v>
@@ -968,7 +972,7 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F16">
         <v>90</v>
@@ -980,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1032,7 +1036,7 @@
         <v>90</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -1090,7 +1094,7 @@
         <v>90</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F20">
         <v>90</v>
@@ -1102,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1134,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1154,7 +1158,7 @@
         <v>90</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F22">
         <v>90</v>
@@ -1171,7 +1175,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>150</v>
@@ -1226,7 +1230,7 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F25">
         <v>90</v>
@@ -1238,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1270,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1290,7 +1294,7 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F27">
         <v>90</v>
@@ -1348,7 +1352,7 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F29">
         <v>90</v>
@@ -1360,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1392,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1412,7 +1416,7 @@
         <v>90</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F31">
         <v>90</v>
@@ -1470,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F33">
         <v>90</v>
@@ -1482,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1514,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,7 +1538,7 @@
         <v>90</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F35">
         <v>90</v>
@@ -1592,7 +1596,7 @@
         <v>90</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F37">
         <v>90</v>
@@ -1604,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1636,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1656,7 +1660,7 @@
         <v>90</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F39">
         <v>90</v>
@@ -1673,7 +1677,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -1728,7 +1732,7 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F42">
         <v>90</v>
@@ -1740,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1772,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1792,7 +1796,7 @@
         <v>90</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F44">
         <v>90</v>
@@ -1850,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F46">
         <v>90</v>
@@ -1862,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1894,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1914,7 +1918,7 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F48">
         <v>90</v>
@@ -1972,7 +1976,7 @@
         <v>90</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F50">
         <v>90</v>
@@ -1984,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2016,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2036,7 +2040,7 @@
         <v>90</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F52">
         <v>90</v>
@@ -2094,7 +2098,7 @@
         <v>90</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F54">
         <v>90</v>
@@ -2106,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2138,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2158,7 +2162,7 @@
         <v>90</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F56">
         <v>90</v>
@@ -2175,31 +2179,31 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57">
+        <v>90</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>90</v>
+      </c>
+      <c r="G57">
+        <v>90</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>40</v>
-      </c>
-      <c r="B57">
-        <v>90</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>90</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-      <c r="F57">
-        <v>90</v>
-      </c>
-      <c r="G57">
-        <v>90</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test_excel/test.xlsx
+++ b/test_excel/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>server_name</t>
   </si>
@@ -66,10 +66,62 @@
     <t>ON</t>
   </si>
   <si>
+    <t>dut_server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_server</t>
+  </si>
+  <si>
+    <t>arm_server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1,0</t>
-  </si>
-  <si>
-    <t>dut_server</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -77,101 +129,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_server</t>
-  </si>
-  <si>
-    <t>arm_server</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>iec63180_movement_set</t>
+  </si>
+  <si>
+    <t>iec63180_movement_set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,6 +578,9 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -645,7 +613,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -673,7 +641,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -713,37 +681,13 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>90</v>
-      </c>
-      <c r="E8">
-        <v>180</v>
-      </c>
-      <c r="F8">
-        <v>90</v>
-      </c>
-      <c r="G8">
-        <v>180</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -760,80 +704,56 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F9">
         <v>90</v>
       </c>
       <c r="G9">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>90</v>
       </c>
       <c r="E10">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>90</v>
       </c>
       <c r="G10">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>90</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-      <c r="F11">
-        <v>90</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -856,27 +776,24 @@
         <v>90</v>
       </c>
       <c r="G12">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D13">
         <v>90</v>
@@ -888,71 +805,47 @@
         <v>90</v>
       </c>
       <c r="G13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>90</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
-      <c r="E14">
-        <v>180</v>
-      </c>
-      <c r="F14">
-        <v>90</v>
-      </c>
-      <c r="G14">
-        <v>90</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>90</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F15">
         <v>90</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -960,66 +853,39 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D16">
         <v>90</v>
       </c>
       <c r="E16">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>90</v>
       </c>
       <c r="G16">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>90</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>90</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="F17">
-        <v>90</v>
-      </c>
-      <c r="G17">
-        <v>180</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,28 +919,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>180</v>
-      </c>
-      <c r="D19">
-        <v>90</v>
-      </c>
-      <c r="E19">
-        <v>90</v>
-      </c>
-      <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1082,66 +933,39 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>90</v>
       </c>
       <c r="E20">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>90</v>
       </c>
       <c r="G20">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>90</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>90</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="F21">
-        <v>90</v>
-      </c>
-      <c r="G21">
-        <v>180</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1175,45 +999,39 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>135</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>45</v>
-      </c>
-      <c r="D24">
-        <v>90</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-      <c r="F24">
-        <v>90</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1236,27 +1054,24 @@
         <v>90</v>
       </c>
       <c r="G25">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D26">
         <v>90</v>
@@ -1268,71 +1083,47 @@
         <v>90</v>
       </c>
       <c r="G26">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27">
-        <v>90</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>90</v>
-      </c>
-      <c r="E27">
-        <v>180</v>
-      </c>
-      <c r="F27">
-        <v>90</v>
-      </c>
-      <c r="G27">
-        <v>90</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>90</v>
       </c>
       <c r="E28">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F28">
         <v>90</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1340,66 +1131,39 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D29">
         <v>90</v>
       </c>
       <c r="E29">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F29">
         <v>90</v>
       </c>
       <c r="G29">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>90</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>90</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-      <c r="F30">
-        <v>90</v>
-      </c>
-      <c r="G30">
-        <v>180</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,28 +1197,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>180</v>
-      </c>
-      <c r="D32">
-        <v>90</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
-      <c r="F32">
-        <v>90</v>
-      </c>
-      <c r="G32">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1462,10 +1211,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1474,54 +1223,27 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F33">
         <v>90</v>
       </c>
       <c r="G33">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>90</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>90</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="F34">
-        <v>90</v>
-      </c>
-      <c r="G34">
-        <v>180</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1561,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>90</v>
@@ -1573,7 +1295,7 @@
         <v>90</v>
       </c>
       <c r="G36">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>8</v>
@@ -1581,37 +1303,13 @@
       <c r="I36" t="s">
         <v>11</v>
       </c>
+      <c r="J36" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37">
-        <v>90</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>90</v>
-      </c>
-      <c r="E37">
-        <v>180</v>
-      </c>
-      <c r="F37">
-        <v>90</v>
-      </c>
-      <c r="G37">
-        <v>180</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1628,73 +1326,64 @@
         <v>90</v>
       </c>
       <c r="E38">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F38">
         <v>90</v>
       </c>
       <c r="G38">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D39">
         <v>90</v>
       </c>
       <c r="E39">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F39">
         <v>90</v>
       </c>
       <c r="G39">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1703,16 +1392,16 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F41">
         <v>90</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1720,65 +1409,38 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D42">
         <v>90</v>
       </c>
       <c r="E42">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F42">
         <v>90</v>
       </c>
       <c r="G42">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43">
-        <v>90</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>90</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="F43">
-        <v>90</v>
-      </c>
-      <c r="G43">
-        <v>180</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1813,13 +1475,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C45">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>90</v>
@@ -1831,379 +1493,13 @@
         <v>90</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46">
-        <v>90</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>90</v>
-      </c>
-      <c r="E46">
-        <v>180</v>
-      </c>
-      <c r="F46">
-        <v>90</v>
-      </c>
-      <c r="G46">
-        <v>180</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47">
-        <v>90</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>90</v>
-      </c>
-      <c r="E47">
-        <v>90</v>
-      </c>
-      <c r="F47">
-        <v>90</v>
-      </c>
-      <c r="G47">
-        <v>180</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48">
-        <v>90</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>90</v>
-      </c>
-      <c r="E48">
-        <v>180</v>
-      </c>
-      <c r="F48">
-        <v>90</v>
-      </c>
-      <c r="G48">
-        <v>90</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>180</v>
-      </c>
-      <c r="D49">
-        <v>90</v>
-      </c>
-      <c r="E49">
-        <v>90</v>
-      </c>
-      <c r="F49">
-        <v>90</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>8</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50">
-        <v>90</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>90</v>
-      </c>
-      <c r="E50">
-        <v>180</v>
-      </c>
-      <c r="F50">
-        <v>90</v>
-      </c>
-      <c r="G50">
-        <v>180</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51">
-        <v>90</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>90</v>
-      </c>
-      <c r="E51">
-        <v>90</v>
-      </c>
-      <c r="F51">
-        <v>90</v>
-      </c>
-      <c r="G51">
-        <v>180</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52">
-        <v>90</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>90</v>
-      </c>
-      <c r="E52">
-        <v>180</v>
-      </c>
-      <c r="F52">
-        <v>90</v>
-      </c>
-      <c r="G52">
-        <v>90</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>180</v>
-      </c>
-      <c r="D53">
-        <v>90</v>
-      </c>
-      <c r="E53">
-        <v>90</v>
-      </c>
-      <c r="F53">
-        <v>90</v>
-      </c>
-      <c r="G53">
-        <v>90</v>
-      </c>
-      <c r="H53">
-        <v>8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54">
-        <v>90</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>90</v>
-      </c>
-      <c r="E54">
-        <v>180</v>
-      </c>
-      <c r="F54">
-        <v>90</v>
-      </c>
-      <c r="G54">
-        <v>180</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55">
-        <v>90</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>90</v>
-      </c>
-      <c r="E55">
-        <v>90</v>
-      </c>
-      <c r="F55">
-        <v>90</v>
-      </c>
-      <c r="G55">
-        <v>180</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56">
-        <v>90</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>90</v>
-      </c>
-      <c r="E56">
-        <v>180</v>
-      </c>
-      <c r="F56">
-        <v>90</v>
-      </c>
-      <c r="G56">
-        <v>90</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57">
-        <v>90</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>90</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-      <c r="F57">
-        <v>90</v>
-      </c>
-      <c r="G57">
-        <v>90</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
